--- a/Datos/Database by set/Set with text box/Xlsx sets/Conflux Promos (PCON).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Conflux Promos (PCON).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,98 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Malfegor</t>
+          <t>('Malfegor', ['{2}{B}{B}{R}{R}', 'Legendary Creature — Demon Dragon', 'Flying', 'When Malfegor enters the battlefield, discard your hand. Each opponent sacrifices a creature for each card discarded this way.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{B}{B}{R}{R}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Creature — Demon Dragon</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>When Malfegor enters the battlefield, discard your hand. Each opponent sacrifices a creature for each card discarded this way.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Obelisk of Alara</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>{6}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Artifact</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>{1}{W}, {T}: You gain 5 life.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{1}{U}, {T}: Draw a card, then discard a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{1}{B}, {T}: Target creature gets -2/-2 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>{1}{R}, {T}: Obelisk of Alara deals 3 damage to target player or planeswalker.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>{1}{G}, {T}: Target creature gets +4/+4 until end of turn.</t>
+          <t>('Obelisk of Alara', ['{6}', 'Artifact', '{1}{W}, {T}: You gain 5 life.', '{1}{U}, {T}: Draw a card, then discard a card.', '{1}{B}, {T}: Target creature gets -2/-2 until end of turn.', '{1}{R}, {T}: Obelisk of Alara deals 3 damage to target player or planeswalker.', '{1}{G}, {T}: Target creature gets +4/+4 until end of turn.'])</t>
         </is>
       </c>
     </row>
